--- a/data/trans_dic/P68-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P68-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 22,38</t>
+          <t>14,51; 22,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 23,15</t>
+          <t>13,58; 22,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,83</t>
+          <t>12,14; 22,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 17,65</t>
+          <t>9,67; 17,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 27,48</t>
+          <t>16,79; 27,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 29,38</t>
+          <t>16,81; 29,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 27,8</t>
+          <t>16,55; 28,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,42</t>
+          <t>15,38; 23,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 23,01</t>
+          <t>16,37; 23,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,67</t>
+          <t>16,64; 23,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 22,54</t>
+          <t>15,81; 22,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,69</t>
+          <t>13,59; 18,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,54</t>
+          <t>11,55; 21,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 19,63</t>
+          <t>10,04; 19,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,36</t>
+          <t>8,67; 17,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 21,89</t>
+          <t>12,45; 21,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 22,79</t>
+          <t>12,93; 23,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 22,92</t>
+          <t>10,64; 23,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 21,71</t>
+          <t>10,77; 21,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,71</t>
+          <t>13,07; 22,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,77; 20,36</t>
+          <t>13,62; 20,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,99</t>
+          <t>11,51; 19,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,44</t>
+          <t>10,62; 17,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,42</t>
+          <t>14,0; 20,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,22; 31,67</t>
+          <t>22,7; 31,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 34,39</t>
+          <t>23,14; 34,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,62; 38,36</t>
+          <t>24,33; 37,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 25,78</t>
+          <t>2,95; 25,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 41,33</t>
+          <t>17,32; 41,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,5; 39,95</t>
+          <t>21,7; 39,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 24,93</t>
+          <t>7,43; 25,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 33,9</t>
+          <t>17,52; 34,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 31,08</t>
+          <t>22,69; 31,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,74; 33,95</t>
+          <t>24,49; 33,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,9; 32,52</t>
+          <t>22,08; 32,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 25,86</t>
+          <t>3,79; 25,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 32,55</t>
+          <t>25,23; 32,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 32,48</t>
+          <t>23,61; 32,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,98; 32,75</t>
+          <t>24,12; 32,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 28,33</t>
+          <t>20,4; 28,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 20,73</t>
+          <t>12,82; 21,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,03; 27,85</t>
+          <t>17,77; 28,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 27,72</t>
+          <t>18,58; 27,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 29,09</t>
+          <t>21,59; 28,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 27,87</t>
+          <t>22,33; 27,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 29,5</t>
+          <t>22,26; 29,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,98; 29,39</t>
+          <t>23,04; 29,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 27,33</t>
+          <t>22,06; 27,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,04; 43,04</t>
+          <t>27,59; 42,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,31; 34,06</t>
+          <t>20,06; 33,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,92; 42,84</t>
+          <t>29,37; 42,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,8; 29,0</t>
+          <t>16,8; 28,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,2; 38,87</t>
+          <t>24,78; 38,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,56; 32,3</t>
+          <t>18,24; 32,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 30,19</t>
+          <t>18,45; 30,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,25; 49,81</t>
+          <t>20,86; 52,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,39; 38,05</t>
+          <t>28,06; 38,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,1; 31,43</t>
+          <t>20,93; 30,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,07; 34,98</t>
+          <t>25,43; 34,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,7; 40,68</t>
+          <t>20,72; 40,59</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,04; 27,04</t>
+          <t>23,0; 27,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,07; 25,59</t>
+          <t>21,2; 25,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,26</t>
+          <t>22,58; 27,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 21,2</t>
+          <t>10,65; 21,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,7; 24,18</t>
+          <t>19,17; 24,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,89</t>
+          <t>20,07; 25,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,43; 23,52</t>
+          <t>18,69; 23,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,26; 30,33</t>
+          <t>21,09; 30,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,27</t>
+          <t>22,2; 25,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,35; 24,73</t>
+          <t>21,42; 24,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,52; 25,0</t>
+          <t>21,58; 25,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,38; 23,43</t>
+          <t>16,2; 23,61</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensan que su trabajo les afecta negativamente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>65083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55458</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46911</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45816</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46650</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43869</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45934</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>59290</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111733</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>99328</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>92845</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>105106</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>51911; 81329</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>41120; 69115</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33655; 62050</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33270; 60120</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36455; 59736</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32680; 57464</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35087; 60726</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48345; 73091</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>94116; 134203</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>82762; 118456</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>77357; 112151</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>89479; 124255</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42354</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37301</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30236</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50778</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41616</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26614</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29394</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42158</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83970</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63915</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>59631</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>92937</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31170; 57324</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25858; 49655</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21072; 42493</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37379; 64897</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30219; 54369</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17772; 38976</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20272; 40464</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32492; 55267</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>68583; 101359</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48859; 81664</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>45823; 77192</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>76865; 110352</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100030</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80435</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66890</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58523</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16287</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33721</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9569</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17839</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>116316</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>114156</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>76459</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76362</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>85766; 119678</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>64930; 95593</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52228; 81480</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14359; 124036</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9850; 23390</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24030; 43552</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4992; 16934</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12555; 24600</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98652; 135369</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>95847; 132355</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>62226; 92067</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21172; 144510</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>200829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>118254</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136869</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>133218</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>49946</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67955</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>84077</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>105758</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>250775</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>186208</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>220946</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>238976</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>177019; 225681</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>100307; 139143</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>116356; 157652</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>112595; 157344</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>39110; 65196</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53475; 84605</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68197; 102203</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>90913; 120712</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>224732; 277945</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>161581; 210551</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>195711; 246877</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>214623; 270182</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64009</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40004</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>69095</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51170</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65623</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43668</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47324</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>127247</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>129632</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83672</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>116419</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>178417</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>50473; 77432</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30667; 51654</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>56677; 82693</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>39207; 66160</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51714; 79817</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32042; 56287</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36278; 60861</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>76804; 192341</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>109881; 149350</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>68751; 99908</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>99075; 134294</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>124652; 244157</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>472305</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>331452</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>339505</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>216298</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>352292</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>692427</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>547280</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>566299</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>691797</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>434675; 511692</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>300778; 363978</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>318451; 384700</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>204144; 404121</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>195809; 249326</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>190384; 244971</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>192722; 242708</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>300271; 432237</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>646303; 737942</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>506992; 587553</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>526758; 611851</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>541036; 788807</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P68-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P68-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
